--- a/testdata/qa-practice-automation.xlsx
+++ b/testdata/qa-practice-automation.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\IdeaProjects\QaPracticeProject\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29551071-D2BA-4726-B928-0ECB0B4BAF28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF09F14-8912-4CBB-9B4E-5A9E91BAE7A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{26D9CDEE-D95A-40B7-98AF-F0E1D3663113}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{26D9CDEE-D95A-40B7-98AF-F0E1D3663113}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="add_to_cart" sheetId="2" r:id="rId2"/>
+    <sheet name="submit_order" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,8 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>Email</t>
   </si>
@@ -63,6 +63,57 @@
   </si>
   <si>
     <t>admin</t>
+  </si>
+  <si>
+    <t>Item Name</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Apple iPhone 12, 128GB, Black</t>
+  </si>
+  <si>
+    <t>$905.99</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>Street</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>pangandaran</t>
+  </si>
+  <si>
+    <t>Exp_result</t>
+  </si>
+  <si>
+    <t>Apple iPhone 13, 128GB, Blue</t>
+  </si>
+  <si>
+    <t>$918.99</t>
+  </si>
+  <si>
+    <t>Nokia 105, Black</t>
+  </si>
+  <si>
+    <t>$19.99</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congrats! Your order of </t>
   </si>
 </sst>
 </file>
@@ -104,13 +155,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02AAD352-E6F1-4978-9450-25203C32FBC6}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -497,4 +551,122 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52B0F455-00A0-4739-8CF5-38EC99ABD203}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="20.6328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.36328125" style="2" customWidth="1"/>
+    <col min="4" max="5" width="20.6328125" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873B9EE0-C6A9-4565-B5FE-113DEB5558E7}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="5" width="20.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>85624384710</v>
+      </c>
+      <c r="B2">
+        <v>12367</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>